--- a/children/StructureDefinition-klgateway-children-communication.xlsx
+++ b/children/StructureDefinition-klgateway-children-communication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-21T14:15:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/StructureDefinition-klgateway-children-communication.xlsx
+++ b/children/StructureDefinition-klgateway-children-communication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:15:43+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/StructureDefinition-klgateway-children-communication.xlsx
+++ b/children/StructureDefinition-klgateway-children-communication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-24T13:11:12+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/StructureDefinition-klgateway-children-communication.xlsx
+++ b/children/StructureDefinition-klgateway-children-communication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T13:11:12+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/StructureDefinition-klgateway-children-communication.xlsx
+++ b/children/StructureDefinition-klgateway-children-communication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T22:52:03+02:00</t>
+    <t>2024-10-31T20:37:15+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
